--- a/data/metadata/mapping-nacionalidad-continente-nombre.xlsx
+++ b/data/metadata/mapping-nacionalidad-continente-nombre.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Europa</t>
   </si>
@@ -48,12 +48,6 @@
   <si>
     <t>http://opendata.aragon.es/kos/iaest/nacionalidad-continente-nombre/america</t>
   </si>
-  <si>
-    <t>Otros continentes</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nacionalidad-continente-nombre/otros-continentes</t>
-  </si>
 </sst>
 </file>
 
@@ -80,20 +74,25 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -103,15 +102,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -165,14 +161,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B1"/>
@@ -181,8 +169,7 @@
     <hyperlink r:id="rId4" ref="B4"/>
     <hyperlink r:id="rId5" ref="B5"/>
     <hyperlink r:id="rId6" ref="B6"/>
-    <hyperlink r:id="rId7" ref="B7"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>